--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1556286.590258956</v>
+        <v>1554094.713105783</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3165573.335774305</v>
+        <v>3165573.335774303</v>
       </c>
     </row>
     <row r="9">
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G4" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T4" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.55068697729995</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>41.31500304752735</v>
@@ -1104,22 +1104,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
         <v>41.31500304752735</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="Y9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>36.39025468426208</v>
-      </c>
-      <c r="W9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>36.39025468426208</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>287.8885812458382</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>362.9933360291457</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
         <v>271.5679831933489</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317982</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>146.4504960531557</v>
+        <v>146.4504960531559</v>
       </c>
       <c r="T13" t="n">
         <v>240.675072556151</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6136207896236</v>
+        <v>275.6136207896234</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>53.30344497367469</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>218.3354166976288</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.17164010427807</v>
       </c>
       <c r="T14" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.2927798113887</v>
+        <v>163.2927798113889</v>
       </c>
       <c r="H16" t="n">
         <v>132.7900107487581</v>
@@ -1821,7 +1821,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896245</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>177.4763143695464</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>50.17164010427807</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>237.6332964359138</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790329</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>126.7148654342083</v>
       </c>
       <c r="G20" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>50.17164010427807</v>
       </c>
       <c r="T20" t="n">
-        <v>16.44461210075103</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>146.4504960531557</v>
+        <v>146.4504960531559</v>
       </c>
       <c r="T22" t="n">
         <v>240.675072556151</v>
       </c>
       <c r="U22" t="n">
-        <v>275.613620789624</v>
+        <v>275.6136207896234</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2371,10 +2371,10 @@
         <v>50.17164010427807</v>
       </c>
       <c r="T23" t="n">
-        <v>211.5956667680352</v>
+        <v>211.595666768035</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752256</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.17164010427807</v>
+        <v>50.17164010427747</v>
       </c>
       <c r="T29" t="n">
         <v>211.5956667680352</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.17164010427747</v>
+        <v>50.17164010427807</v>
       </c>
       <c r="T32" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5154774752274</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3268,13 +3268,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>395.9513258013682</v>
       </c>
       <c r="H35" t="n">
-        <v>230.6480617387107</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>50.17164010427807</v>
       </c>
       <c r="T35" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>93.07566248155001</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>325.4329372362093</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>50.17164010427807</v>
       </c>
       <c r="T38" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>347.8803093983977</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3717,7 +3717,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896231</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790329</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>393.2514413397805</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>50.17164010427807</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>86.7914535631525</v>
       </c>
     </row>
     <row r="42">
@@ -3951,10 +3951,10 @@
         <v>146.4504960531559</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6750725561507</v>
+        <v>240.675072556151</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6136207896231</v>
+        <v>275.6136207896236</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,13 +3985,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>218.923588430358</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>50.17164010427807</v>
       </c>
       <c r="T44" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>321.9537104632593</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4191,7 +4191,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6136207896236</v>
+        <v>275.6136207896234</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4339,19 +4339,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="M2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N2" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O2" t="n">
+        <v>42.55445313895319</v>
+      </c>
+      <c r="P2" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q2" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="P2" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4406,25 +4406,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N3" t="n">
-        <v>44.20705326085427</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O3" t="n">
-        <v>44.20705326085427</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="P3" t="n">
         <v>83.45630615600527</v>
@@ -4445,10 +4445,10 @@
         <v>81.79535956884203</v>
       </c>
       <c r="V3" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W3" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X3" t="n">
         <v>40.06303325820834</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D4" t="n">
-        <v>18.64521196358022</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E4" t="n">
-        <v>18.64521196358022</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F4" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G4" t="n">
         <v>3.305200243802188</v>
@@ -4488,25 +4488,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>44.20705326085427</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="N4" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O4" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P4" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
@@ -4515,25 +4515,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T4" t="n">
-        <v>60.37753827421391</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U4" t="n">
-        <v>60.37753827421391</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064263</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4570,25 +4570,25 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N5" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O5" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="P5" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R5" t="n">
         <v>165.2600121901094</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F6" t="n">
         <v>3.305200243802188</v>
@@ -4652,22 +4652,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="L6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="O6" t="n">
         <v>44.20705326085427</v>
       </c>
-      <c r="M6" t="n">
-        <v>44.20705326085427</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>85.10890627790634</v>
       </c>
-      <c r="O6" t="n">
-        <v>126.0107592949584</v>
-      </c>
-      <c r="P6" t="n">
-        <v>126.0107592949584</v>
-      </c>
       <c r="Q6" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4676,22 +4676,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E7" t="n">
         <v>86.76985286506957</v>
@@ -4716,7 +4716,7 @@
         <v>86.76985286506957</v>
       </c>
       <c r="G7" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="H7" t="n">
         <v>45.03752655443588</v>
@@ -4725,25 +4725,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M7" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N7" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O7" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4752,19 +4752,19 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X7" t="n">
         <v>102.1098645848476</v>
@@ -4807,25 +4807,25 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P8" t="n">
-        <v>83.45630615600527</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C9" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D9" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E9" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F9" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G9" t="n">
         <v>45.03752655443588</v>
@@ -4880,25 +4880,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O9" t="n">
-        <v>70.27072642131186</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="P9" t="n">
         <v>83.45630615600527</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="W9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="X9" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="Y9" t="n">
         <v>86.76985286506957</v>
-      </c>
-      <c r="W9" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="X9" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="C10" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="D10" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="E10" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="F10" t="n">
         <v>45.03752655443588</v>
       </c>
-      <c r="C10" t="n">
+      <c r="G10" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
         <v>3.305200243802188</v>
@@ -4965,16 +4965,16 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O10" t="n">
         <v>124.3581591730573</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X10" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1128.964261531981</v>
+        <v>2322.73623667203</v>
       </c>
       <c r="C11" t="n">
-        <v>1128.964261531981</v>
+        <v>2031.939689959062</v>
       </c>
       <c r="D11" t="n">
-        <v>1128.964261531981</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="E11" t="n">
-        <v>1128.964261531981</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F11" t="n">
-        <v>701.0968319411886</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G11" t="n">
         <v>334.4368965582132</v>
       </c>
       <c r="H11" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="I11" t="n">
         <v>114.3925393395051</v>
@@ -5044,49 +5044,49 @@
         <v>670.0153478550028</v>
       </c>
       <c r="K11" t="n">
-        <v>886.0120835572811</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L11" t="n">
-        <v>1109.814993933965</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M11" t="n">
-        <v>1358.838853932253</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N11" t="n">
-        <v>1611.892180331743</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O11" t="n">
-        <v>1850.843260703269</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P11" t="n">
-        <v>2594.900065694295</v>
+        <v>2048.401279735701</v>
       </c>
       <c r="Q11" t="n">
-        <v>2748.049925732253</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R11" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175864</v>
       </c>
       <c r="S11" t="n">
-        <v>2955.611696828107</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T11" t="n">
-        <v>2741.878700092718</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="U11" t="n">
-        <v>2741.878700092718</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="V11" t="n">
-        <v>2379.261750026545</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="W11" t="n">
-        <v>1974.406295437578</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="X11" t="n">
-        <v>1555.263832016889</v>
+        <v>2322.73623667203</v>
       </c>
       <c r="Y11" t="n">
-        <v>1555.263832016889</v>
+        <v>2322.73623667203</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G12" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H12" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880325</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K12" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L12" t="n">
-        <v>445.2293041160067</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M12" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N12" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P12" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q12" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R12" t="n">
         <v>1697.561900409858</v>
@@ -5178,16 +5178,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C13" t="n">
-        <v>940.6829283989592</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D13" t="n">
-        <v>774.8049356004819</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E13" t="n">
-        <v>605.0469318512191</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F13" t="n">
-        <v>428.3398778129754</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G13" t="n">
         <v>263.3976759832894</v>
@@ -5196,7 +5196,7 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I13" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="J13" t="n">
         <v>191.6817584242374</v>
@@ -5208,43 +5208,43 @@
         <v>1053.139058957356</v>
       </c>
       <c r="M13" t="n">
-        <v>1303.573255757435</v>
+        <v>1612.343363070977</v>
       </c>
       <c r="N13" t="n">
-        <v>1843.181366743664</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O13" t="n">
-        <v>2352.768458191201</v>
+        <v>2352.768458191202</v>
       </c>
       <c r="P13" t="n">
-        <v>2777.215599969509</v>
+        <v>2777.21559996951</v>
       </c>
       <c r="Q13" t="n">
-        <v>2998.677814292588</v>
+        <v>2998.677814292589</v>
       </c>
       <c r="R13" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175864</v>
       </c>
       <c r="S13" t="n">
-        <v>2858.360327182776</v>
+        <v>2858.360327182777</v>
       </c>
       <c r="T13" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287675</v>
       </c>
       <c r="U13" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V13" t="n">
-        <v>2049.901088400909</v>
+        <v>2049.90108840091</v>
       </c>
       <c r="W13" t="n">
         <v>1777.874683987201</v>
       </c>
       <c r="X13" t="n">
-        <v>1532.482929320613</v>
+        <v>1532.482929320614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1542.25963594591</v>
+        <v>824.1885449935411</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.25963594591</v>
+        <v>770.3466813837687</v>
       </c>
       <c r="D14" t="n">
-        <v>1542.25963594591</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.484891104205</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="F14" t="n">
-        <v>680.6174615134132</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G14" t="n">
-        <v>280.6666273706171</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H14" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="I14" t="n">
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K14" t="n">
-        <v>415.1612716583817</v>
+        <v>879.6308838212449</v>
       </c>
       <c r="L14" t="n">
-        <v>1159.218076649408</v>
+        <v>1103.433794197929</v>
       </c>
       <c r="M14" t="n">
-        <v>1903.274881640434</v>
+        <v>1352.457654196217</v>
       </c>
       <c r="N14" t="n">
-        <v>2321.163831307358</v>
+        <v>1605.510980595707</v>
       </c>
       <c r="O14" t="n">
-        <v>2560.114911678883</v>
+        <v>1844.462060967233</v>
       </c>
       <c r="P14" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.401279735701</v>
       </c>
       <c r="Q14" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R14" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175864</v>
       </c>
       <c r="S14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T14" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="U14" t="n">
-        <v>2792.557124440474</v>
+        <v>2482.772157188451</v>
       </c>
       <c r="V14" t="n">
-        <v>2792.557124440474</v>
+        <v>2482.772157188451</v>
       </c>
       <c r="W14" t="n">
-        <v>2387.701669851507</v>
+        <v>2077.916702599485</v>
       </c>
       <c r="X14" t="n">
-        <v>1968.559206430818</v>
+        <v>1658.774239178796</v>
       </c>
       <c r="Y14" t="n">
-        <v>1968.559206430818</v>
+        <v>1250.488115478449</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G15" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H15" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="I15" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J15" t="n">
-        <v>157.9417523880325</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K15" t="n">
-        <v>280.472113037332</v>
+        <v>306.5357861977896</v>
       </c>
       <c r="L15" t="n">
-        <v>445.2293041160067</v>
+        <v>471.2929772764643</v>
       </c>
       <c r="M15" t="n">
-        <v>637.4931750101595</v>
+        <v>663.5568481706171</v>
       </c>
       <c r="N15" t="n">
-        <v>1228.151173903613</v>
+        <v>860.9093716283352</v>
       </c>
       <c r="O15" t="n">
-        <v>1408.690176922396</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.588643444633</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q15" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5415,16 +5415,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C16" t="n">
-        <v>940.6829283989588</v>
+        <v>940.6829283989589</v>
       </c>
       <c r="D16" t="n">
-        <v>774.8049356004815</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E16" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F16" t="n">
-        <v>428.3398778129749</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G16" t="n">
         <v>263.3976759832894</v>
@@ -5433,40 +5433,40 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I16" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="J16" t="n">
-        <v>157.6701056818313</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K16" t="n">
-        <v>231.5799348298918</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L16" t="n">
-        <v>744.3689516438141</v>
+        <v>1053.139058957356</v>
       </c>
       <c r="M16" t="n">
-        <v>1303.573255757435</v>
+        <v>1612.343363070977</v>
       </c>
       <c r="N16" t="n">
-        <v>1843.181366743664</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O16" t="n">
-        <v>2352.768458191201</v>
+        <v>2352.768458191202</v>
       </c>
       <c r="P16" t="n">
-        <v>2777.215599969509</v>
+        <v>2777.21559996951</v>
       </c>
       <c r="Q16" t="n">
-        <v>2998.677814292588</v>
+        <v>2998.677814292589</v>
       </c>
       <c r="R16" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175864</v>
       </c>
       <c r="S16" t="n">
-        <v>2858.360327182776</v>
+        <v>2858.360327182777</v>
       </c>
       <c r="T16" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287675</v>
       </c>
       <c r="U16" t="n">
         <v>2336.856596530478</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1326.086538973682</v>
+        <v>675.304591662756</v>
       </c>
       <c r="C17" t="n">
-        <v>887.9440661571057</v>
+        <v>496.0355872490728</v>
       </c>
       <c r="D17" t="n">
-        <v>887.9440661571057</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="E17" t="n">
-        <v>887.9440661571057</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="F17" t="n">
-        <v>460.0766365663134</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="G17" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="H17" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="I17" t="n">
         <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K17" t="n">
-        <v>415.1612716583817</v>
+        <v>879.6308838212449</v>
       </c>
       <c r="L17" t="n">
-        <v>1159.218076649408</v>
+        <v>1103.433794197929</v>
       </c>
       <c r="M17" t="n">
-        <v>1903.274881640434</v>
+        <v>1352.457654196217</v>
       </c>
       <c r="N17" t="n">
-        <v>2321.163831307359</v>
+        <v>1605.510980595707</v>
       </c>
       <c r="O17" t="n">
-        <v>2560.114911678884</v>
+        <v>1844.462060967233</v>
       </c>
       <c r="P17" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.401279735701</v>
       </c>
       <c r="Q17" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R17" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175864</v>
       </c>
       <c r="S17" t="n">
         <v>2955.611696828108</v>
       </c>
       <c r="T17" t="n">
-        <v>2741.878700092719</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="U17" t="n">
-        <v>2741.878700092719</v>
+        <v>2696.50515392384</v>
       </c>
       <c r="V17" t="n">
-        <v>2379.261750026545</v>
+        <v>2333.888203857667</v>
       </c>
       <c r="W17" t="n">
-        <v>1974.406295437578</v>
+        <v>1929.0327492687</v>
       </c>
       <c r="X17" t="n">
-        <v>1734.372662674029</v>
+        <v>1509.890285848011</v>
       </c>
       <c r="Y17" t="n">
-        <v>1326.086538973682</v>
+        <v>1101.604162147664</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>94.3841987827997</v>
       </c>
       <c r="H18" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25132408734106</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J18" t="n">
-        <v>157.9417523880326</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K18" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L18" t="n">
-        <v>445.2293041160067</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M18" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N18" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O18" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P18" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q18" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R18" t="n">
         <v>1697.561900409858</v>
@@ -5670,28 +5670,28 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I19" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="J19" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595476</v>
       </c>
       <c r="K19" t="n">
-        <v>540.3500421434336</v>
+        <v>453.7703569787437</v>
       </c>
       <c r="L19" t="n">
-        <v>1053.139058957356</v>
+        <v>966.5593737926658</v>
       </c>
       <c r="M19" t="n">
-        <v>1303.573255757435</v>
+        <v>1525.763677906287</v>
       </c>
       <c r="N19" t="n">
-        <v>1843.181366743664</v>
+        <v>2065.371788892516</v>
       </c>
       <c r="O19" t="n">
-        <v>2352.768458191202</v>
+        <v>2574.958880340053</v>
       </c>
       <c r="P19" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q19" t="n">
         <v>2998.677814292588</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1326.086538973682</v>
+        <v>1296.157289112622</v>
       </c>
       <c r="C20" t="n">
-        <v>887.9440661571057</v>
+        <v>1296.157289112622</v>
       </c>
       <c r="D20" t="n">
-        <v>887.9440661571057</v>
+        <v>1296.157289112622</v>
       </c>
       <c r="E20" t="n">
-        <v>887.9440661571057</v>
+        <v>862.3825442709167</v>
       </c>
       <c r="F20" t="n">
-        <v>460.0766365663134</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G20" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H20" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="I20" t="n">
         <v>114.3925393395051</v>
@@ -5770,34 +5770,34 @@
         <v>1815.247136257287</v>
       </c>
       <c r="P20" t="n">
-        <v>2048.4012797357</v>
+        <v>2048.401279735701</v>
       </c>
       <c r="Q20" t="n">
         <v>2748.049925732254</v>
       </c>
       <c r="R20" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175864</v>
       </c>
       <c r="S20" t="n">
         <v>2955.611696828108</v>
       </c>
       <c r="T20" t="n">
-        <v>2939.00097753442</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="U20" t="n">
-        <v>2939.00097753442</v>
+        <v>2482.772157188451</v>
       </c>
       <c r="V20" t="n">
-        <v>2576.384027468246</v>
+        <v>2120.155207122278</v>
       </c>
       <c r="W20" t="n">
-        <v>2171.528572879279</v>
+        <v>1715.299752533311</v>
       </c>
       <c r="X20" t="n">
-        <v>1752.38610945859</v>
+        <v>1296.157289112622</v>
       </c>
       <c r="Y20" t="n">
-        <v>1752.38610945859</v>
+        <v>1296.157289112622</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>94.3841987827997</v>
       </c>
       <c r="H21" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734106</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J21" t="n">
-        <v>157.9417523880326</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K21" t="n">
-        <v>673.7775884730672</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L21" t="n">
-        <v>838.5347795517418</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M21" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O21" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P21" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q21" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R21" t="n">
         <v>1697.561900409858</v>
@@ -5889,43 +5889,43 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C22" t="n">
-        <v>940.6829283989588</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D22" t="n">
-        <v>774.8049356004815</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E22" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F22" t="n">
-        <v>428.3398778129749</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G22" t="n">
-        <v>263.3976759832892</v>
+        <v>263.3976759832894</v>
       </c>
       <c r="H22" t="n">
         <v>129.2663519946448</v>
       </c>
       <c r="I22" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351727</v>
       </c>
       <c r="J22" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K22" t="n">
-        <v>453.7703569787437</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L22" t="n">
-        <v>966.5593737926658</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M22" t="n">
-        <v>1525.763677906287</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N22" t="n">
-        <v>2065.371788892516</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O22" t="n">
-        <v>2574.958880340053</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P22" t="n">
         <v>2777.215599969509</v>
@@ -5949,7 +5949,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W22" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X22" t="n">
         <v>1532.482929320613</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.07217436438</v>
       </c>
       <c r="C23" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547804</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722248</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880543</v>
       </c>
       <c r="F23" t="n">
-        <v>775.3777422897501</v>
+        <v>775.377742289751</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469534</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I23" t="n">
-        <v>155.3825509282453</v>
+        <v>155.3825509282454</v>
       </c>
       <c r="J23" t="n">
         <v>711.005359443743</v>
       </c>
       <c r="K23" t="n">
-        <v>1475.091038811258</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L23" t="n">
-        <v>1698.893949187941</v>
+        <v>2324.624498801547</v>
       </c>
       <c r="M23" t="n">
-        <v>2950.202147589628</v>
+        <v>2573.648358799835</v>
       </c>
       <c r="N23" t="n">
-        <v>4201.510345991314</v>
+        <v>2826.701685199325</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.461426362839</v>
+        <v>3065.652765570851</v>
       </c>
       <c r="P23" t="n">
-        <v>4644.400645131308</v>
+        <v>4097.901859172715</v>
       </c>
       <c r="Q23" t="n">
-        <v>4797.550505169266</v>
+        <v>4797.550505169268</v>
       </c>
       <c r="R23" t="n">
-        <v>5055.790700612875</v>
+        <v>5055.790700612877</v>
       </c>
       <c r="S23" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265121</v>
       </c>
       <c r="T23" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.379279529732</v>
       </c>
       <c r="U23" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V23" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W23" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970324</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549635</v>
       </c>
       <c r="Y23" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849288</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3916.274880018578</v>
+        <v>599.0360914043008</v>
       </c>
       <c r="C24" t="n">
-        <v>3809.81841885522</v>
+        <v>492.5796302409431</v>
       </c>
       <c r="D24" t="n">
-        <v>3714.728130001773</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E24" t="n">
-        <v>3620.607715328727</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F24" t="n">
-        <v>3537.223876944889</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G24" t="n">
-        <v>3452.612998985817</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H24" t="n">
-        <v>3418.354602626535</v>
+        <v>101.1158140122575</v>
       </c>
       <c r="I24" t="n">
-        <v>3444.480124290359</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J24" t="n">
-        <v>3516.17055259105</v>
+        <v>549.5537621034428</v>
       </c>
       <c r="K24" t="n">
-        <v>3638.70091324035</v>
+        <v>714.7676000618079</v>
       </c>
       <c r="L24" t="n">
-        <v>3803.458104319025</v>
+        <v>879.5247911404825</v>
       </c>
       <c r="M24" t="n">
-        <v>3995.721975213177</v>
+        <v>1071.788662034635</v>
       </c>
       <c r="N24" t="n">
-        <v>4193.074498670896</v>
+        <v>1269.141185492353</v>
       </c>
       <c r="O24" t="n">
-        <v>4373.613501689679</v>
+        <v>1449.680188511137</v>
       </c>
       <c r="P24" t="n">
-        <v>4518.511968211916</v>
+        <v>1594.578655033373</v>
       </c>
       <c r="Q24" t="n">
-        <v>5008.678231227768</v>
+        <v>1691.439442613492</v>
       </c>
       <c r="R24" t="n">
-        <v>5055.790700612875</v>
+        <v>1738.551911998599</v>
       </c>
       <c r="S24" t="n">
-        <v>5006.715907210568</v>
+        <v>1689.477118596291</v>
       </c>
       <c r="T24" t="n">
-        <v>4879.657880299898</v>
+        <v>1562.419091685621</v>
       </c>
       <c r="U24" t="n">
-        <v>4703.372268285048</v>
+        <v>1386.13347967077</v>
       </c>
       <c r="V24" t="n">
-        <v>4504.254750347047</v>
+        <v>1187.015961732769</v>
       </c>
       <c r="W24" t="n">
-        <v>4318.93199608024</v>
+        <v>1001.693207465963</v>
       </c>
       <c r="X24" t="n">
-        <v>4164.064560319121</v>
+        <v>846.8257717048432</v>
       </c>
       <c r="Y24" t="n">
-        <v>4037.578781098342</v>
+        <v>720.3399924840639</v>
       </c>
     </row>
     <row r="25">
@@ -6147,13 +6147,13 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J25" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129777</v>
       </c>
       <c r="K25" t="n">
-        <v>272.5699464186321</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L25" t="n">
-        <v>785.3589632325543</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M25" t="n">
         <v>1344.563267346175</v>
@@ -6214,7 +6214,7 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F26" t="n">
-        <v>775.3777422897496</v>
+        <v>775.3777422897497</v>
       </c>
       <c r="G26" t="n">
         <v>375.4269081469535</v>
@@ -6229,25 +6229,25 @@
         <v>711.005359443743</v>
       </c>
       <c r="K26" t="n">
-        <v>891.40597070004</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>2142.714169101726</v>
+        <v>1949.559173034902</v>
       </c>
       <c r="M26" t="n">
-        <v>2391.738029100015</v>
+        <v>2198.58303303319</v>
       </c>
       <c r="N26" t="n">
-        <v>2644.791355499505</v>
+        <v>3449.891231434877</v>
       </c>
       <c r="O26" t="n">
-        <v>3234.806830323906</v>
+        <v>3688.842311806402</v>
       </c>
       <c r="P26" t="n">
-        <v>4267.055923925771</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q26" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R26" t="n">
         <v>5055.790700612876</v>
@@ -6302,31 +6302,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I27" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181686</v>
       </c>
       <c r="K27" t="n">
-        <v>714.7676000618079</v>
+        <v>597.5948219674681</v>
       </c>
       <c r="L27" t="n">
-        <v>879.5247911404825</v>
+        <v>762.3520130461427</v>
       </c>
       <c r="M27" t="n">
-        <v>1071.788662034635</v>
+        <v>954.6158839402956</v>
       </c>
       <c r="N27" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O27" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P27" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q27" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6442,7 +6442,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C29" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D29" t="n">
         <v>1637.019916722247</v>
@@ -6451,7 +6451,7 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G29" t="n">
         <v>375.4269081469534</v>
@@ -6466,25 +6466,25 @@
         <v>711.005359443743</v>
       </c>
       <c r="K29" t="n">
-        <v>891.40597070004</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.598896984295</v>
+        <v>1949.559173034902</v>
       </c>
       <c r="M29" t="n">
-        <v>1762.622756982583</v>
+        <v>2198.58303303319</v>
       </c>
       <c r="N29" t="n">
-        <v>2015.676083382074</v>
+        <v>2451.63635943268</v>
       </c>
       <c r="O29" t="n">
-        <v>3234.806830323905</v>
+        <v>3065.652765570849</v>
       </c>
       <c r="P29" t="n">
-        <v>4267.05592392577</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q29" t="n">
-        <v>4966.704569922323</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R29" t="n">
         <v>5055.790700612875</v>
@@ -6505,7 +6505,7 @@
         <v>3764.800331970323</v>
       </c>
       <c r="X29" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y29" t="n">
         <v>2937.371744849287</v>
@@ -6542,7 +6542,7 @@
         <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>224.9954371372304</v>
+        <v>549.5537621034428</v>
       </c>
       <c r="K30" t="n">
         <v>714.7676000618079</v>
@@ -6624,22 +6624,22 @@
         <v>146.0920848482878</v>
       </c>
       <c r="K31" t="n">
-        <v>494.760368567484</v>
+        <v>272.5699464186321</v>
       </c>
       <c r="L31" t="n">
-        <v>1007.549385381406</v>
+        <v>785.3589632325543</v>
       </c>
       <c r="M31" t="n">
-        <v>1512.756042210508</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N31" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O31" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P31" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q31" t="n">
         <v>3039.667825881328</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2511.072174364378</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.929701547802</v>
+        <v>2072.929701547803</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.019916722246</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E32" t="n">
-        <v>1203.245171880541</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F32" t="n">
-        <v>775.3777422897496</v>
+        <v>775.3777422897501</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I32" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J32" t="n">
         <v>711.005359443743</v>
       </c>
       <c r="K32" t="n">
-        <v>1120.641921854556</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L32" t="n">
-        <v>1344.444832231239</v>
+        <v>2870.332352344396</v>
       </c>
       <c r="M32" t="n">
-        <v>1593.468692229527</v>
+        <v>3119.356212342684</v>
       </c>
       <c r="N32" t="n">
-        <v>1846.522018629018</v>
+        <v>4370.664410744371</v>
       </c>
       <c r="O32" t="n">
-        <v>3065.65276557085</v>
+        <v>4609.615491115896</v>
       </c>
       <c r="P32" t="n">
-        <v>4097.901859172714</v>
+        <v>4813.554709884364</v>
       </c>
       <c r="Q32" t="n">
-        <v>4797.550505169267</v>
+        <v>4966.704569922323</v>
       </c>
       <c r="R32" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S32" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T32" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U32" t="n">
-        <v>4532.272736625462</v>
+        <v>4532.272736625463</v>
       </c>
       <c r="V32" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W32" t="n">
-        <v>3764.800331970322</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549633</v>
+        <v>3345.657868549634</v>
       </c>
       <c r="Y32" t="n">
-        <v>2937.371744849286</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3916.27488001858</v>
+        <v>599.0360914043008</v>
       </c>
       <c r="C33" t="n">
-        <v>3809.818418855222</v>
+        <v>492.5796302409431</v>
       </c>
       <c r="D33" t="n">
-        <v>3714.728130001775</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E33" t="n">
-        <v>3620.607715328729</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F33" t="n">
-        <v>3537.223876944891</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G33" t="n">
-        <v>3452.612998985819</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H33" t="n">
-        <v>3418.354602626537</v>
+        <v>101.1158140122575</v>
       </c>
       <c r="I33" t="n">
-        <v>3444.48012429036</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>3516.170552591052</v>
+        <v>475.0644613181686</v>
       </c>
       <c r="K33" t="n">
-        <v>3638.700913240351</v>
+        <v>597.5948219674681</v>
       </c>
       <c r="L33" t="n">
-        <v>3803.458104319026</v>
+        <v>762.3520130461427</v>
       </c>
       <c r="M33" t="n">
-        <v>3995.721975213179</v>
+        <v>954.6158839402956</v>
       </c>
       <c r="N33" t="n">
-        <v>4193.074498670898</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O33" t="n">
-        <v>4373.613501689681</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P33" t="n">
-        <v>4911.817443647652</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q33" t="n">
-        <v>5008.678231227769</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R33" t="n">
-        <v>5055.790700612876</v>
+        <v>1738.551911998599</v>
       </c>
       <c r="S33" t="n">
-        <v>5006.715907210569</v>
+        <v>1689.477118596291</v>
       </c>
       <c r="T33" t="n">
-        <v>4879.657880299899</v>
+        <v>1562.419091685621</v>
       </c>
       <c r="U33" t="n">
-        <v>4703.372268285048</v>
+        <v>1386.13347967077</v>
       </c>
       <c r="V33" t="n">
-        <v>4504.254750347048</v>
+        <v>1187.015961732769</v>
       </c>
       <c r="W33" t="n">
-        <v>4318.931996080242</v>
+        <v>1001.693207465963</v>
       </c>
       <c r="X33" t="n">
-        <v>4164.064560319122</v>
+        <v>846.8257717048432</v>
       </c>
       <c r="Y33" t="n">
-        <v>4037.578781098343</v>
+        <v>720.3399924840639</v>
       </c>
     </row>
     <row r="34">
@@ -6858,25 +6858,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J34" t="n">
-        <v>232.6717700129777</v>
+        <v>146.0920848482878</v>
       </c>
       <c r="K34" t="n">
-        <v>581.3400537321738</v>
+        <v>494.760368567484</v>
       </c>
       <c r="L34" t="n">
-        <v>1094.129070546096</v>
+        <v>1007.549385381406</v>
       </c>
       <c r="M34" t="n">
-        <v>1653.333374659717</v>
+        <v>1566.753689495027</v>
       </c>
       <c r="N34" t="n">
-        <v>1884.171378332404</v>
+        <v>2106.361800481256</v>
       </c>
       <c r="O34" t="n">
-        <v>2393.758469779942</v>
+        <v>2615.948891928794</v>
       </c>
       <c r="P34" t="n">
-        <v>2818.205611558249</v>
+        <v>2986.398386422581</v>
       </c>
       <c r="Q34" t="n">
         <v>3039.667825881328</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1128.964261531981</v>
+        <v>1767.90363905015</v>
       </c>
       <c r="C35" t="n">
-        <v>1128.964261531981</v>
+        <v>1329.761166233574</v>
       </c>
       <c r="D35" t="n">
-        <v>693.0544767064252</v>
+        <v>893.8513814080183</v>
       </c>
       <c r="E35" t="n">
-        <v>693.0544767064252</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="F35" t="n">
-        <v>693.0544767064252</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="G35" t="n">
-        <v>293.1036425636291</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H35" t="n">
         <v>60.12580242351726</v>
@@ -6940,25 +6940,25 @@
         <v>670.0153478550028</v>
       </c>
       <c r="K35" t="n">
-        <v>850.4159591112997</v>
+        <v>1414.072152846029</v>
       </c>
       <c r="L35" t="n">
-        <v>1074.218869487983</v>
+        <v>1649.932580156523</v>
       </c>
       <c r="M35" t="n">
-        <v>1323.242729486271</v>
+        <v>1898.956440154811</v>
       </c>
       <c r="N35" t="n">
-        <v>1576.296055885762</v>
+        <v>2152.009766554301</v>
       </c>
       <c r="O35" t="n">
-        <v>1815.247136257287</v>
+        <v>2390.960846925826</v>
       </c>
       <c r="P35" t="n">
-        <v>2217.555344488757</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q35" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R35" t="n">
         <v>3006.290121175863</v>
@@ -6967,22 +6967,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T35" t="n">
-        <v>2741.878700092718</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U35" t="n">
-        <v>2741.878700092718</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="V35" t="n">
-        <v>2379.261750026545</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="W35" t="n">
-        <v>1974.406295437578</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="X35" t="n">
-        <v>1555.263832016889</v>
+        <v>2602.489333235405</v>
       </c>
       <c r="Y35" t="n">
-        <v>1555.263832016889</v>
+        <v>2194.203209535058</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I36" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J36" t="n">
-        <v>157.9417523880325</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K36" t="n">
-        <v>673.7775884730672</v>
+        <v>306.5357861977896</v>
       </c>
       <c r="L36" t="n">
-        <v>838.5347795517418</v>
+        <v>471.2929772764643</v>
       </c>
       <c r="M36" t="n">
-        <v>1030.798650445895</v>
+        <v>663.5568481706171</v>
       </c>
       <c r="N36" t="n">
-        <v>1228.151173903613</v>
+        <v>860.9093716283352</v>
       </c>
       <c r="O36" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P36" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q36" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7074,7 +7074,7 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C37" t="n">
-        <v>940.6829283989589</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D37" t="n">
         <v>774.8049356004817</v>
@@ -7095,22 +7095,22 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J37" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K37" t="n">
-        <v>453.7703569787437</v>
+        <v>265.591587572298</v>
       </c>
       <c r="L37" t="n">
-        <v>966.5593737926658</v>
+        <v>778.3806043862202</v>
       </c>
       <c r="M37" t="n">
-        <v>1303.573255757435</v>
+        <v>1337.584908499841</v>
       </c>
       <c r="N37" t="n">
-        <v>1843.181366743664</v>
+        <v>1877.19301948607</v>
       </c>
       <c r="O37" t="n">
-        <v>2352.768458191201</v>
+        <v>2386.780110933608</v>
       </c>
       <c r="P37" t="n">
         <v>2777.215599969509</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2036.307417933934</v>
+        <v>1250.488115478448</v>
       </c>
       <c r="C38" t="n">
-        <v>1598.164945117357</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="D38" t="n">
-        <v>1162.255160291802</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E38" t="n">
-        <v>1162.255160291802</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F38" t="n">
-        <v>734.3877307010093</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G38" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H38" t="n">
         <v>60.12580242351726</v>
@@ -7174,52 +7174,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J38" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K38" t="n">
-        <v>415.1612716583817</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L38" t="n">
-        <v>638.9641820350654</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M38" t="n">
-        <v>887.9880420333535</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N38" t="n">
-        <v>1141.041368432844</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O38" t="n">
-        <v>1379.992448804369</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P38" t="n">
-        <v>2124.049253795395</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q38" t="n">
-        <v>2823.697899791948</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R38" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U38" t="n">
-        <v>2792.557124440474</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V38" t="n">
-        <v>2792.557124440474</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="W38" t="n">
-        <v>2387.701669851507</v>
+        <v>2077.916702599484</v>
       </c>
       <c r="X38" t="n">
-        <v>2036.307417933934</v>
+        <v>1658.774239178795</v>
       </c>
       <c r="Y38" t="n">
-        <v>2036.307417933934</v>
+        <v>1250.488115478448</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>86.25132408734105</v>
       </c>
       <c r="J39" t="n">
-        <v>157.9417523880325</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K39" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L39" t="n">
-        <v>445.2293041160067</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M39" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N39" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P39" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q39" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R39" t="n">
         <v>1697.561900409858</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C40" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D40" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E40" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F40" t="n">
         <v>428.3398778129751</v>
@@ -7332,25 +7332,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J40" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K40" t="n">
-        <v>453.7703569787437</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L40" t="n">
-        <v>966.5593737926658</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M40" t="n">
-        <v>1471.766030621767</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N40" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O40" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P40" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q40" t="n">
         <v>2998.677814292588</v>
@@ -7365,7 +7365,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U40" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V40" t="n">
         <v>2049.901088400909</v>
@@ -7377,7 +7377,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y40" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2195.771068640943</v>
+        <v>1208.489154200345</v>
       </c>
       <c r="C41" t="n">
-        <v>1757.628595824366</v>
+        <v>770.3466813837687</v>
       </c>
       <c r="D41" t="n">
-        <v>1321.718810998811</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="E41" t="n">
-        <v>887.9440661571057</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="F41" t="n">
-        <v>460.0766365663134</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G41" t="n">
-        <v>60.12580242351724</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H41" t="n">
-        <v>60.12580242351724</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="I41" t="n">
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K41" t="n">
-        <v>415.1612716583817</v>
+        <v>1048.784948574301</v>
       </c>
       <c r="L41" t="n">
-        <v>1159.218076649408</v>
+        <v>1272.587858950985</v>
       </c>
       <c r="M41" t="n">
-        <v>1577.107026316332</v>
+        <v>1521.611718949273</v>
       </c>
       <c r="N41" t="n">
-        <v>2321.163831307358</v>
+        <v>1774.665045348763</v>
       </c>
       <c r="O41" t="n">
-        <v>2560.114911678883</v>
+        <v>2013.616125720289</v>
       </c>
       <c r="P41" t="n">
-        <v>2764.054130447351</v>
+        <v>2217.555344488757</v>
       </c>
       <c r="Q41" t="n">
         <v>2917.20399048531</v>
       </c>
       <c r="R41" t="n">
-        <v>3006.290121175862</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="S41" t="n">
         <v>2955.611696828107</v>
       </c>
       <c r="T41" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U41" t="n">
-        <v>2955.611696828107</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V41" t="n">
-        <v>2592.994746761933</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W41" t="n">
-        <v>2592.994746761933</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X41" t="n">
-        <v>2592.994746761933</v>
+        <v>1296.157289112621</v>
       </c>
       <c r="Y41" t="n">
-        <v>2592.994746761933</v>
+        <v>1208.489154200345</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G42" t="n">
-        <v>94.38419878279967</v>
+        <v>94.38419878279969</v>
       </c>
       <c r="H42" t="n">
-        <v>60.12580242351724</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="I42" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J42" t="n">
-        <v>157.9417523880325</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K42" t="n">
-        <v>280.472113037332</v>
+        <v>673.7775884730672</v>
       </c>
       <c r="L42" t="n">
-        <v>445.2293041160067</v>
+        <v>838.5347795517418</v>
       </c>
       <c r="M42" t="n">
-        <v>637.4931750101595</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N42" t="n">
-        <v>834.8456984678776</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O42" t="n">
-        <v>1015.384701486661</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P42" t="n">
-        <v>1160.283168008898</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q42" t="n">
         <v>1650.449431024751</v>
@@ -7548,7 +7548,7 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C43" t="n">
-        <v>940.6829283989591</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D43" t="n">
         <v>774.8049356004817</v>
@@ -7566,40 +7566,40 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I43" t="n">
-        <v>60.12580242351724</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="J43" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K43" t="n">
-        <v>231.5799348298914</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L43" t="n">
-        <v>744.3689516438136</v>
+        <v>1053.139058957356</v>
       </c>
       <c r="M43" t="n">
-        <v>1303.573255757434</v>
+        <v>1612.343363070977</v>
       </c>
       <c r="N43" t="n">
-        <v>1843.181366743663</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O43" t="n">
-        <v>2352.768458191201</v>
+        <v>2661.538565504743</v>
       </c>
       <c r="P43" t="n">
-        <v>2777.215599969508</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q43" t="n">
-        <v>2998.677814292587</v>
+        <v>2998.677814292588</v>
       </c>
       <c r="R43" t="n">
-        <v>3006.290121175862</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="S43" t="n">
-        <v>2858.360327182775</v>
+        <v>2858.360327182776</v>
       </c>
       <c r="T43" t="n">
-        <v>2615.254193287673</v>
+        <v>2615.254193287674</v>
       </c>
       <c r="U43" t="n">
         <v>2336.856596530478</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1555.263832016888</v>
+        <v>1795.820234498146</v>
       </c>
       <c r="C44" t="n">
-        <v>1117.121359200311</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="D44" t="n">
-        <v>681.2115743747559</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E44" t="n">
-        <v>681.2115743747559</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F44" t="n">
-        <v>460.0766365663134</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G44" t="n">
-        <v>60.12580242351724</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H44" t="n">
-        <v>60.12580242351724</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="I44" t="n">
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K44" t="n">
-        <v>415.1612716583817</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L44" t="n">
-        <v>638.9641820350654</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M44" t="n">
-        <v>887.9880420333535</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N44" t="n">
-        <v>1141.041368432844</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O44" t="n">
-        <v>1885.09817342387</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P44" t="n">
-        <v>2089.037392192338</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q44" t="n">
-        <v>2788.686038188891</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R44" t="n">
-        <v>3006.290121175862</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="S44" t="n">
         <v>2955.611696828107</v>
       </c>
       <c r="T44" t="n">
-        <v>2741.878700092718</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U44" t="n">
-        <v>2741.878700092718</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="V44" t="n">
-        <v>2379.261750026544</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="W44" t="n">
-        <v>1974.406295437577</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="X44" t="n">
-        <v>1555.263832016888</v>
+        <v>2630.405928683401</v>
       </c>
       <c r="Y44" t="n">
-        <v>1555.263832016888</v>
+        <v>2222.119804983054</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G45" t="n">
-        <v>94.38419878279967</v>
+        <v>94.38419878279969</v>
       </c>
       <c r="H45" t="n">
-        <v>60.12580242351724</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="I45" t="n">
-        <v>112.3149972477986</v>
+        <v>86.25132408734105</v>
       </c>
       <c r="J45" t="n">
-        <v>508.5637505147024</v>
+        <v>482.5000773542449</v>
       </c>
       <c r="K45" t="n">
-        <v>631.0941111640019</v>
+        <v>605.0304380035443</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8513022426765</v>
+        <v>769.7876290822189</v>
       </c>
       <c r="M45" t="n">
-        <v>988.1151731368294</v>
+        <v>962.0514999763718</v>
       </c>
       <c r="N45" t="n">
-        <v>1185.467696594547</v>
+        <v>1159.40402343409</v>
       </c>
       <c r="O45" t="n">
-        <v>1366.006699613331</v>
+        <v>1339.943026452873</v>
       </c>
       <c r="P45" t="n">
-        <v>1510.905166135568</v>
+        <v>1484.84149297511</v>
       </c>
       <c r="Q45" t="n">
-        <v>1607.765953715686</v>
+        <v>1581.702280555228</v>
       </c>
       <c r="R45" t="n">
         <v>1697.561900409858</v>
@@ -7785,7 +7785,7 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C46" t="n">
-        <v>940.6829283989589</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D46" t="n">
         <v>774.8049356004817</v>
@@ -7803,34 +7803,34 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I46" t="n">
-        <v>60.12580242351724</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="J46" t="n">
         <v>191.6817584242374</v>
       </c>
       <c r="K46" t="n">
-        <v>540.3500421434336</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L46" t="n">
-        <v>1053.139058957356</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M46" t="n">
-        <v>1612.343363070977</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N46" t="n">
-        <v>1843.181366743663</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O46" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P46" t="n">
-        <v>2777.215599969508</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q46" t="n">
-        <v>2998.677814292587</v>
+        <v>2998.677814292588</v>
       </c>
       <c r="R46" t="n">
-        <v>3006.290121175862</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="S46" t="n">
         <v>2858.360327182776</v>
@@ -7987,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="N2" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O2" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.64570999510202</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="P9" t="n">
-        <v>13.31876740878121</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -8613,7 +8613,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8622,10 +8622,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>35.9556812585671</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>545.5733194167249</v>
+        <v>29.51002495954071</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8856,13 +8856,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>152.2361210781528</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>112.0193352648898</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>29.5100249595406</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5089844589316</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>500.0332777704423</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>166.5006295630646</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>397.278258015894</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.09902264877147</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
@@ -9099,7 +9099,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>112.0193352648898</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>29.5100249595406</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5089844589316</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>166.5006295630651</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9330,7 +9330,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>152.2361210781532</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9339,10 +9339,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>296.4739865513357</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>29.51002495954026</v>
+        <v>29.51002495954071</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K21" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216357</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
@@ -9576,7 +9576,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>126.5822947691822</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9640,25 +9640,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>589.580876880018</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>378.853864410753</v>
       </c>
       <c r="M23" t="n">
-        <v>1012.408422629695</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1008.338254547673</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>43.11462354451078</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>397.2782580158937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>53.09902264877147</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781528</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9877,28 +9877,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1037.884129318185</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1008.338254547673</v>
       </c>
       <c r="O26" t="n">
-        <v>354.6104994473494</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>207.1922511089338</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K27" t="n">
-        <v>397.2782580158946</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>402.4141574823952</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>378.8538644107512</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>370.9513154295738</v>
+        <v>43.11462354451078</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>53.09902264877147</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>409.5820402993875</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>231.5514658126422</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>930.0739184944391</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1008.338254547673</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>252.5949739201397</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>397.2782580158928</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10518,16 +10518,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>134.8370665091948</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>296.4739865513357</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>569.3496906411406</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>12.17931003415174</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>200.3727166292942</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>239.6903485172336</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10761,7 +10761,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>316.6618598261975</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>545.5733194167249</v>
+        <v>29.51002495953981</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>94.45059665996132</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>278.92191650646</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216357</v>
       </c>
       <c r="M40" t="n">
-        <v>409.5820402993875</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>200.3727166292942</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5089844589316</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>170.5707976450872</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>495.9631096884195</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>43.11462354451032</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>53.09902264877104</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>39.1280673301012</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>510.2078026459601</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>29.51002495953981</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8161134307256</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>43.11462354451032</v>
+        <v>69.44156613083123</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>135.5364869918447</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11466,7 +11466,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>134.8370665091943</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>145.8724668425727</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>32.9579897722225</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>380.4576031147362</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H14" t="n">
-        <v>53.23256649572016</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427807</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>256.2847337188645</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H17" t="n">
         <v>271.5679831933489</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>177.3177423505686</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>296.8738898606761</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>195.1510546672842</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>40.91992145463826</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>321.8753763049324</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>108.3281108522016</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.17164010427807</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>67.07072938808471</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.78513344027823</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>317.4118089001906</v>
       </c>
     </row>
     <row r="42">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>204.6651668645263</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
         <v>271.5679831933489</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
         <v>256.5154774752252</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>92.99732832322314</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>359920.2256549955</v>
+        <v>359920.2256549957</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>547183.1383559357</v>
+        <v>547183.1383559358</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>359920.2256549954</v>
+        <v>359920.2256549955</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>359920.2256549954</v>
+        <v>359920.2256549955</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>522743.6368931482</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="E2" t="n">
-        <v>368421.9367741508</v>
+        <v>368421.936774151</v>
       </c>
       <c r="F2" t="n">
         <v>368421.9367741509</v>
@@ -26331,7 +26331,7 @@
         <v>368421.9367741509</v>
       </c>
       <c r="H2" t="n">
-        <v>368421.9367741509</v>
+        <v>368421.9367741508</v>
       </c>
       <c r="I2" t="n">
         <v>522743.6368931482</v>
@@ -26340,16 +26340,16 @@
         <v>522743.6368931482</v>
       </c>
       <c r="K2" t="n">
+        <v>522743.6368931481</v>
+      </c>
+      <c r="L2" t="n">
         <v>522743.6368931482</v>
-      </c>
-      <c r="L2" t="n">
-        <v>522743.6368931483</v>
       </c>
       <c r="M2" t="n">
         <v>368421.9367741508</v>
       </c>
       <c r="N2" t="n">
-        <v>368421.9367741508</v>
+        <v>368421.9367741509</v>
       </c>
       <c r="O2" t="n">
         <v>368421.9367741508</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136251.3108961174</v>
+        <v>136251.3108961175</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736732</v>
+        <v>10809.8226573672</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.08122041602</v>
+        <v>49313.08122041613</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>302243.7051245434</v>
       </c>
       <c r="C4" t="n">
-        <v>302243.7051245433</v>
+        <v>302243.7051245434</v>
       </c>
       <c r="D4" t="n">
         <v>302243.7051245434</v>
       </c>
       <c r="E4" t="n">
-        <v>67639.67088599749</v>
+        <v>67639.67088599752</v>
       </c>
       <c r="F4" t="n">
+        <v>67639.67088599752</v>
+      </c>
+      <c r="G4" t="n">
         <v>67639.6708859975</v>
       </c>
-      <c r="G4" t="n">
-        <v>67639.67088599753</v>
-      </c>
       <c r="H4" t="n">
-        <v>67639.6708859975</v>
+        <v>67639.67088599752</v>
       </c>
       <c r="I4" t="n">
         <v>132478.8553729572</v>
@@ -26459,7 +26459,7 @@
         <v>67639.67088599749</v>
       </c>
       <c r="P4" t="n">
-        <v>67639.67088599746</v>
+        <v>67639.67088599748</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971769</v>
       </c>
       <c r="F5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971769</v>
       </c>
       <c r="G5" t="n">
-        <v>53463.84704971768</v>
+        <v>53463.84704971769</v>
       </c>
       <c r="H5" t="n">
-        <v>53463.84704971768</v>
+        <v>53463.84704971769</v>
       </c>
       <c r="I5" t="n">
-        <v>84616.25585716026</v>
+        <v>84616.25585716029</v>
       </c>
       <c r="J5" t="n">
         <v>84616.25585716027</v>
@@ -26499,7 +26499,7 @@
         <v>84616.25585716026</v>
       </c>
       <c r="L5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="M5" t="n">
         <v>53463.84704971767</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170514.7718170186</v>
+        <v>170514.7718170187</v>
       </c>
       <c r="C6" t="n">
         <v>184360.3795833152</v>
       </c>
       <c r="D6" t="n">
-        <v>184360.3795833151</v>
+        <v>184360.3795833152</v>
       </c>
       <c r="E6" t="n">
-        <v>-251034.4071452352</v>
+        <v>-251430.1038122068</v>
       </c>
       <c r="F6" t="n">
-        <v>247318.4188384357</v>
+        <v>246922.7221714639</v>
       </c>
       <c r="G6" t="n">
-        <v>247318.4188384357</v>
+        <v>246922.722171464</v>
       </c>
       <c r="H6" t="n">
-        <v>247318.4188384357</v>
+        <v>246922.7221714638</v>
       </c>
       <c r="I6" t="n">
-        <v>169397.2147669133</v>
+        <v>169397.2147669131</v>
       </c>
       <c r="J6" t="n">
-        <v>294838.7030056634</v>
+        <v>294838.7030056635</v>
       </c>
       <c r="K6" t="n">
+        <v>305648.5256630306</v>
+      </c>
+      <c r="L6" t="n">
         <v>305648.5256630307</v>
       </c>
-      <c r="L6" t="n">
-        <v>305648.5256630309</v>
-      </c>
       <c r="M6" t="n">
-        <v>198005.3376180196</v>
+        <v>197609.6409510477</v>
       </c>
       <c r="N6" t="n">
-        <v>247318.4188384356</v>
+        <v>246922.7221714639</v>
       </c>
       <c r="O6" t="n">
-        <v>247318.4188384356</v>
+        <v>246922.7221714638</v>
       </c>
       <c r="P6" t="n">
-        <v>247318.4188384356</v>
+        <v>246922.7221714638</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="F4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="G4" t="n">
-        <v>751.5725302939658</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="H4" t="n">
-        <v>751.5725302939658</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="I4" t="n">
         <v>1263.947675153219</v>
@@ -26828,10 +26828,10 @@
         <v>751.5725302939657</v>
       </c>
       <c r="O4" t="n">
-        <v>751.5725302939655</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="P4" t="n">
-        <v>751.5725302939655</v>
+        <v>751.5725302939657</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>710.2575272464383</v>
+        <v>710.2575272464385</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>512.3751448592531</v>
+        <v>512.3751448592534</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752763</v>
+        <v>41.31500304752717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8823823871849</v>
+        <v>197.8823823871853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>710.2575272464383</v>
+        <v>710.2575272464385</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27517,13 +27517,13 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27548,10 +27548,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G4" t="n">
-        <v>148.7487506218503</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>142.462343412403</v>
       </c>
       <c r="T4" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27697,16 +27697,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G6" t="n">
         <v>84.53123883647795</v>
@@ -27748,7 +27748,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
@@ -27757,13 +27757,13 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>88.83066674430933</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>174.713820929217</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27782,16 +27782,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>152.8738121091899</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I7" t="n">
         <v>46.45834668554406</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27946,7 +27946,7 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H9" t="n">
         <v>0.003292614422299778</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
         <v>128.8768572327044</v>
@@ -27991,16 +27991,16 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>160.7360880743585</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28022,13 +28022,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28076,7 +28076,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>206.5475824356596</v>
+        <v>227.7512255173414</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="N2" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O2" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.64570999510202</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="P9" t="n">
-        <v>13.31876740878121</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -35333,7 +35333,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -35342,10 +35342,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>561.2351601166644</v>
       </c>
       <c r="K11" t="n">
-        <v>218.1785209113923</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L11" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M11" t="n">
         <v>251.5392525235234</v>
@@ -35427,10 +35427,10 @@
         <v>241.3647276480053</v>
       </c>
       <c r="P11" t="n">
-        <v>751.5725302939657</v>
+        <v>235.5092358367815</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R11" t="n">
         <v>260.8486822662721</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K12" t="n">
         <v>123.7680410598984</v>
@@ -35503,16 +35503,16 @@
         <v>199.3459832906243</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961991</v>
       </c>
       <c r="Q12" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>132.8848040411314</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K13" t="n">
         <v>352.1901855749456</v>
@@ -35576,13 +35576,13 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M13" t="n">
-        <v>252.9638351515953</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N13" t="n">
         <v>545.0586979658874</v>
       </c>
       <c r="O13" t="n">
-        <v>514.7344358055939</v>
+        <v>202.845438519189</v>
       </c>
       <c r="P13" t="n">
         <v>428.7344866447547</v>
@@ -35646,31 +35646,31 @@
         <v>54.81488577372509</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528251</v>
+        <v>211.7328646123658</v>
       </c>
       <c r="L14" t="n">
-        <v>751.5725302939657</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M14" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N14" t="n">
-        <v>422.1100501686108</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P14" t="n">
         <v>205.9992108772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110253</v>
       </c>
       <c r="K15" t="n">
         <v>123.7680410598984</v>
@@ -35737,7 +35737,7 @@
         <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
-        <v>596.6242413065183</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O15" t="n">
         <v>182.3626293119023</v>
@@ -35746,10 +35746,10 @@
         <v>146.3620873961991</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939959</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>98.52959925082226</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K16" t="n">
-        <v>74.65639307884905</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L16" t="n">
         <v>517.9687038524467</v>
@@ -35819,7 +35819,7 @@
         <v>545.0586979658874</v>
       </c>
       <c r="O16" t="n">
-        <v>514.7344358055939</v>
+        <v>202.845438519189</v>
       </c>
       <c r="P16" t="n">
         <v>428.7344866447547</v>
@@ -35883,31 +35883,31 @@
         <v>54.81488577372509</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528251</v>
+        <v>211.7328646123658</v>
       </c>
       <c r="L17" t="n">
-        <v>751.5725302939657</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M17" t="n">
-        <v>751.5725302939659</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N17" t="n">
-        <v>422.110050168611</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P17" t="n">
         <v>205.9992108772408</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K18" t="n">
         <v>123.7680410598984</v>
@@ -35977,7 +35977,7 @@
         <v>199.3459832906243</v>
       </c>
       <c r="O18" t="n">
-        <v>579.6408873277963</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P18" t="n">
         <v>146.3620873961991</v>
@@ -35986,7 +35986,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>132.8848040411315</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K19" t="n">
         <v>352.1901855749456</v>
@@ -36050,7 +36050,7 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M19" t="n">
-        <v>252.9638351515957</v>
+        <v>564.8528324380012</v>
       </c>
       <c r="N19" t="n">
         <v>545.0586979658874</v>
@@ -36059,10 +36059,10 @@
         <v>514.7344358055939</v>
       </c>
       <c r="P19" t="n">
-        <v>428.7344866447547</v>
+        <v>374.1914085795834</v>
       </c>
       <c r="Q19" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R19" t="n">
         <v>7.689198871994797</v>
@@ -36138,7 +36138,7 @@
         <v>241.3647276480053</v>
       </c>
       <c r="P20" t="n">
-        <v>235.509235836781</v>
+        <v>235.5092358367815</v>
       </c>
       <c r="Q20" t="n">
         <v>706.7158040369222</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K21" t="n">
-        <v>521.0462990757926</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L21" t="n">
         <v>166.4214051299745</v>
@@ -36211,7 +36211,7 @@
         <v>194.205930196114</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O21" t="n">
         <v>182.3626293119023</v>
@@ -36223,7 +36223,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K22" t="n">
         <v>352.1901855749456</v>
       </c>
       <c r="L22" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660408</v>
       </c>
       <c r="M22" t="n">
-        <v>564.8528324380012</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N22" t="n">
         <v>545.0586979658874</v>
@@ -36296,7 +36296,7 @@
         <v>514.7344358055939</v>
       </c>
       <c r="P22" t="n">
-        <v>204.2997167974299</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q22" t="n">
         <v>223.6992063869488</v>
@@ -36360,25 +36360,25 @@
         <v>561.2351601166644</v>
       </c>
       <c r="K23" t="n">
-        <v>771.8037165328432</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L23" t="n">
-        <v>226.0635458350339</v>
+        <v>604.9174102457869</v>
       </c>
       <c r="M23" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N23" t="n">
-        <v>1263.947675153219</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772412</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R23" t="n">
         <v>260.8486822662717</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204416</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J24" t="n">
-        <v>72.4145740411027</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598982</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M24" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906246</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P24" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q24" t="n">
-        <v>495.1174373897502</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R24" t="n">
-        <v>47.5883529142493</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K25" t="n">
-        <v>127.7554157276205</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L25" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M25" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515953</v>
       </c>
       <c r="N25" t="n">
         <v>545.0586979658874</v>
@@ -36597,28 +36597,28 @@
         <v>561.2351601166644</v>
       </c>
       <c r="K26" t="n">
-        <v>182.2228396528252</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L26" t="n">
-        <v>1263.947675153219</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055459</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="O26" t="n">
-        <v>595.9752270953545</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P26" t="n">
-        <v>1042.675852123096</v>
+        <v>413.1914619861745</v>
       </c>
       <c r="Q26" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K27" t="n">
-        <v>521.0462990757931</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L27" t="n">
         <v>166.4214051299745</v>
@@ -36685,7 +36685,7 @@
         <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O27" t="n">
         <v>182.3626293119023</v>
@@ -36697,7 +36697,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>561.2351601166644</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528252</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L29" t="n">
-        <v>628.4777033174291</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>1231.445198931143</v>
+        <v>620.2185920587563</v>
       </c>
       <c r="P29" t="n">
         <v>1042.675852123096</v>
@@ -36855,7 +36855,7 @@
         <v>706.7158040369222</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>52.71635840836504</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110253</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K30" t="n">
-        <v>494.7193564894723</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L30" t="n">
         <v>166.4214051299745</v>
@@ -36992,13 +36992,13 @@
         <v>45.43057660205079</v>
       </c>
       <c r="K31" t="n">
-        <v>352.1901855749456</v>
+        <v>127.7554157276205</v>
       </c>
       <c r="L31" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M31" t="n">
-        <v>510.3097543728298</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N31" t="n">
         <v>545.0586979658874</v>
@@ -37010,7 +37010,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
         <v>7.689198871994797</v>
@@ -37071,28 +37071,28 @@
         <v>561.2351601166644</v>
       </c>
       <c r="K32" t="n">
-        <v>413.7743054654674</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L32" t="n">
-        <v>226.0635458350339</v>
+        <v>1156.137464329473</v>
       </c>
       <c r="M32" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
-        <v>255.6094206055461</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="O32" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P32" t="n">
-        <v>1042.675852123096</v>
+        <v>205.9992108772412</v>
       </c>
       <c r="Q32" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R32" t="n">
-        <v>260.8486822662717</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204416</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>72.4145740411027</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598982</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M33" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906246</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O33" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
-        <v>543.6403454120918</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.8391793738565</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R33" t="n">
-        <v>47.5883529142493</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>132.8848040411315</v>
+        <v>45.43057660205079</v>
       </c>
       <c r="K34" t="n">
         <v>352.1901855749456</v>
@@ -37235,19 +37235,19 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M34" t="n">
-        <v>564.8528324380011</v>
+        <v>564.8528324380012</v>
       </c>
       <c r="N34" t="n">
-        <v>233.1697006794816</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O34" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P34" t="n">
-        <v>428.7344866447547</v>
+        <v>374.1914085795834</v>
       </c>
       <c r="Q34" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R34" t="n">
         <v>7.689198871994797</v>
@@ -37308,10 +37308,10 @@
         <v>561.2351601166644</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528252</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="L35" t="n">
-        <v>226.0635458350339</v>
+        <v>238.2428558691856</v>
       </c>
       <c r="M35" t="n">
         <v>251.5392525235234</v>
@@ -37320,16 +37320,16 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>406.371927506535</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q35" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110253</v>
       </c>
       <c r="K36" t="n">
-        <v>521.0462990757926</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L36" t="n">
         <v>166.4214051299745</v>
@@ -37396,10 +37396,10 @@
         <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119023</v>
+        <v>434.9576032320415</v>
       </c>
       <c r="P36" t="n">
         <v>146.3620873961991</v>
@@ -37408,7 +37408,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.4305766020508</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K37" t="n">
-        <v>352.1901855749456</v>
+        <v>74.65639307884905</v>
       </c>
       <c r="L37" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M37" t="n">
-        <v>340.418062590676</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N37" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O37" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P37" t="n">
-        <v>428.7344866447547</v>
+        <v>394.3792818544453</v>
       </c>
       <c r="Q37" t="n">
         <v>223.6992063869488</v>
@@ -37542,31 +37542,31 @@
         <v>54.81488577372509</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L38" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N38" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O38" t="n">
         <v>241.3647276480053</v>
       </c>
       <c r="P38" t="n">
-        <v>751.5725302939657</v>
+        <v>235.5092358367806</v>
       </c>
       <c r="Q38" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R38" t="n">
-        <v>184.436587256479</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>26.38941582204423</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110251</v>
+        <v>351.3364905475626</v>
       </c>
       <c r="K39" t="n">
         <v>123.7680410598984</v>
@@ -37636,16 +37636,16 @@
         <v>199.3459832906243</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961991</v>
       </c>
       <c r="Q39" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.4305766020508</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K40" t="n">
         <v>352.1901855749456</v>
       </c>
       <c r="L40" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660408</v>
       </c>
       <c r="M40" t="n">
-        <v>510.3097543728298</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N40" t="n">
         <v>545.0586979658874</v>
@@ -37721,7 +37721,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R40" t="n">
         <v>7.689198871994797</v>
@@ -37779,28 +37779,28 @@
         <v>54.81488577372509</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528251</v>
+        <v>382.5955562821194</v>
       </c>
       <c r="L41" t="n">
-        <v>751.5725302939657</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
-        <v>422.1100501686105</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N41" t="n">
-        <v>751.5725302939654</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P41" t="n">
         <v>205.9992108772408</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R41" t="n">
         <v>89.98599059651769</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110253</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598984</v>
+        <v>166.8826646044088</v>
       </c>
       <c r="L42" t="n">
         <v>166.4214051299745</v>
@@ -37870,16 +37870,16 @@
         <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P42" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961991</v>
       </c>
       <c r="Q42" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
         <v>47.58835291424953</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K43" t="n">
-        <v>127.7554157276201</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L43" t="n">
         <v>517.9687038524467</v>
@@ -37955,7 +37955,7 @@
         <v>514.7344358055939</v>
       </c>
       <c r="P43" t="n">
-        <v>428.7344866447547</v>
+        <v>116.8454893583489</v>
       </c>
       <c r="Q43" t="n">
         <v>223.6992063869488</v>
@@ -38016,31 +38016,31 @@
         <v>54.81488577372509</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K44" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L44" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M44" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N44" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O44" t="n">
-        <v>751.5725302939654</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367806</v>
       </c>
       <c r="Q44" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R44" t="n">
-        <v>219.8021040272433</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>52.71635840836503</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J45" t="n">
-        <v>400.2512659261654</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598985</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L45" t="n">
         <v>166.4214051299745</v>
@@ -38107,7 +38107,7 @@
         <v>194.205930196114</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
         <v>182.3626293119023</v>
@@ -38119,7 +38119,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
-        <v>90.70297645875985</v>
+        <v>117.0299190450808</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>132.8848040411315</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K46" t="n">
-        <v>352.1901855749456</v>
+        <v>210.1928800706937</v>
       </c>
       <c r="L46" t="n">
         <v>517.9687038524467</v>
@@ -38186,7 +38186,7 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N46" t="n">
-        <v>233.1697006794811</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O46" t="n">
         <v>514.7344358055939</v>
@@ -38195,7 +38195,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q46" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R46" t="n">
         <v>7.689198871994797</v>
